--- a/Training/cypress/fixtures/Task Read Data.xlsx
+++ b/Training/cypress/fixtures/Task Read Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8820"/>
+    <workbookView windowWidth="21000" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="as" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>First Name</t>
   </si>
@@ -83,22 +83,10 @@
     <t>Black</t>
   </si>
   <si>
-    <t>testuser02</t>
-  </si>
-  <si>
-    <t>DifferentPass</t>
-  </si>
-  <si>
-    <t>DifferentPass123</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Doe</t>
-  </si>
-  <si>
-    <t>testuser01</t>
+    <t>testcypress</t>
+  </si>
+  <si>
+    <t>DifferentP123</t>
   </si>
 </sst>
 </file>
@@ -1265,13 +1253,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10" style="1"/>
     <col min="2" max="2" width="15.6666666666667" style="1" customWidth="1"/>
@@ -1352,32 +1340,12 @@
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
